--- a/ASVS-5.0.0.xlsx
+++ b/ASVS-5.0.0.xlsx
@@ -2505,16 +2505,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2643,513 +2647,513 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E31">
@@ -3192,609 +3196,609 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E37">
@@ -3809,7 +3813,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E37" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3837,417 +3841,417 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E25">
@@ -4262,7 +4266,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E25" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E25" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4290,225 +4294,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E13">
@@ -4523,7 +4527,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E13" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E13" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4551,369 +4555,369 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E22">
@@ -4928,7 +4932,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E22" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4956,241 +4960,241 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E14">
@@ -5205,7 +5209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E14" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5228,374 +5232,374 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E22">
@@ -5610,7 +5614,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E22" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E22" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5630,7 +5634,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -5638,308 +5642,410 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E18">
+  <conditionalFormatting sqref="A2:E18 D19:G35">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$E2="ToDo"</formula>
     </cfRule>
@@ -5951,7 +6057,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E18" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E18" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5979,225 +6085,225 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E13">
@@ -6212,7 +6318,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E13" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E13" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6240,241 +6346,241 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E14">
@@ -6489,7 +6595,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E14" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6517,529 +6623,529 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E32">
@@ -7054,7 +7160,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E32" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E32" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7082,289 +7188,289 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E17">
@@ -7379,7 +7485,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E17" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E17" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7407,241 +7513,241 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E14">
@@ -7656,7 +7762,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E14" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7684,785 +7790,785 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="155.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="D43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="D44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="D45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="D47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="155.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="D48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E48">
@@ -8477,7 +8583,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E48" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E48" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8505,337 +8611,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E20">
@@ -8850,7 +8956,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E20" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E20" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8878,241 +8984,241 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E14">
@@ -9127,7 +9233,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E14" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9155,145 +9261,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:E8">
@@ -9308,7 +9414,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:E8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E8" type="list">
       <formula1>"ToDo,Done,NA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
